--- a/entrega/usabilidad/pruebas_usabilidad.xlsx
+++ b/entrega/usabilidad/pruebas_usabilidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temporal\sew\entrega\usabilidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5825B256-FB81-40FF-926F-150252516BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578BE85-866F-4473-8124-49719B6C5571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11115" yWindow="5010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17895" yWindow="4770" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
   <si>
     <t>Primera tanda</t>
   </si>
@@ -125,12 +125,57 @@
   <si>
     <t>suma:</t>
   </si>
+  <si>
+    <t>Completada correctamente</t>
+  </si>
+  <si>
+    <t>No completada</t>
+  </si>
+  <si>
+    <t>Completada erroneamente</t>
+  </si>
+  <si>
+    <t>No obtuvo la puntuación máxima</t>
+  </si>
+  <si>
+    <t>Obtuvo puntuación máxima obtenida mediante prueba y error</t>
+  </si>
+  <si>
+    <t>Obtuvo puntuación máxima obtenida gracias a buscar la información en el sitio web</t>
+  </si>
+  <si>
+    <t>Encontró la información deseada</t>
+  </si>
+  <si>
+    <t>Encontró otra información creyendo que era la deseada</t>
+  </si>
+  <si>
+    <t>No encontró la información</t>
+  </si>
+  <si>
+    <t>Reservó al menos tres recursos para una semana y obtuvo el presupuesto</t>
+  </si>
+  <si>
+    <t>Reservó menos de tres recursos para una semana y obtuvo el presupuesto</t>
+  </si>
+  <si>
+    <t>No reservó recursos para una semana o no obtuvo el presupuesto</t>
+  </si>
+  <si>
+    <t>Jugar al juego desarrollado</t>
+  </si>
+  <si>
+    <t>Hacer una reserva de actividades turísticas durante una semana y obtener el presupuesto</t>
+  </si>
+  <si>
+    <t>El usuario debe encontrar la información sobre el tiempo de duración de la ruta turística de su interés</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +219,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +243,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -418,12 +489,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
@@ -436,17 +508,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,12 +520,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -471,11 +528,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,11 +549,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,14 +567,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto explicativo" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,7 +716,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$12</c:f>
+              <c:f>Hoja1!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -630,21 +737,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Hoja1!$E$14:$E$17,Hoja1!$E$24:$E$27,Hoja1!$E$34:$E$37)</c:f>
+              <c:f>(Hoja1!$E$12:$E$15,Hoja1!$E$22:$E$25,Hoja1!$E$32:$E$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -659,61 +766,61 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$K$14:$K$17,Hoja1!$K$24:$K$27,Hoja1!$K$34:$K$37)</c:f>
+              <c:f>(Hoja1!$K$12:$K$15,Hoja1!$K$22:$K$25,Hoja1!$K$32:$K$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>394</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>959</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>379</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1139</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>378</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>349</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1209</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>235</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>843</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1134</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>543</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>416</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +836,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$M$12</c:f>
+              <c:f>Hoja1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -750,21 +857,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Hoja1!$E$14:$E$17,Hoja1!$E$24:$E$27,Hoja1!$E$34:$E$37)</c:f>
+              <c:f>(Hoja1!$E$12:$E$15,Hoja1!$E$22:$E$25,Hoja1!$E$32:$E$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -779,61 +886,61 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$P$14:$P$17,Hoja1!$P$24:$P$27,Hoja1!$P$34:$P$37)</c:f>
+              <c:f>(Hoja1!$P$12:$P$15,Hoja1!$P$22:$P$25,Hoja1!$P$32:$P$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>322</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>287</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>319</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>766</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>268</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>478</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +956,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$R$12</c:f>
+              <c:f>Hoja1!$R$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -870,21 +977,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Hoja1!$E$14:$E$17,Hoja1!$E$24:$E$27,Hoja1!$E$34:$E$37)</c:f>
+              <c:f>(Hoja1!$E$12:$E$15,Hoja1!$E$22:$E$25,Hoja1!$E$32:$E$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -899,61 +1006,61 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$U$14:$U$17,Hoja1!$U$24:$U$27,Hoja1!$U$34:$U$37)</c:f>
+              <c:f>(Hoja1!$U$12:$U$15,Hoja1!$U$22:$U$25,Hoja1!$U$32:$U$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>369</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>268</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>839</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>191</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>130</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,7 +1076,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$W$12</c:f>
+              <c:f>Hoja1!$W$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -990,21 +1097,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Hoja1!$E$14:$E$17,Hoja1!$E$24:$E$27,Hoja1!$E$34:$E$37)</c:f>
+              <c:f>(Hoja1!$E$12:$E$15,Hoja1!$E$22:$E$25,Hoja1!$E$32:$E$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
@@ -1019,61 +1126,61 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$W$14:$W$17,Hoja1!$W$24:$W$27,Hoja1!$W$34:$W$37)</c:f>
+              <c:f>(Hoja1!$W$12:$W$15,Hoja1!$W$22:$W$25,Hoja1!$W$32:$W$35)</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>361.66666666666669</c:v>
+                  <c:v>753.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498.66666666666669</c:v>
+                  <c:v>907.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>322</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>948.66666666666663</c:v>
+                  <c:v>341.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>267</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>275</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>733.33333333333337</c:v>
+                  <c:v>394.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>222</c:v>
+                  <c:v>201.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>753.66666666666663</c:v>
+                  <c:v>259.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>907.66666666666663</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>334</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>341.33333333333331</c:v>
+                  <c:v>588.33333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,7 +1588,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$13</c:f>
+              <c:f>Hoja1!$H$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1504,7 +1611,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Hoja1!$B$12,Hoja1!$B$22,Hoja1!$B$32)</c:f>
+              <c:f>(Hoja1!$B$10,Hoja1!$B$20,Hoja1!$B$30)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1521,18 +1628,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$H$18,Hoja1!$H$28,Hoja1!$H$38)</c:f>
+              <c:f>(Hoja1!$H$16,Hoja1!$H$26,Hoja1!$H$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1112</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>922</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>823</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,7 +1656,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$13</c:f>
+              <c:f>Hoja1!$I$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1572,18 +1679,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$I$18,Hoja1!$I$28,Hoja1!$I$38)</c:f>
+              <c:f>(Hoja1!$I$16,Hoja1!$I$26,Hoja1!$I$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,7 +1707,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$J$13</c:f>
+              <c:f>Hoja1!$J$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1623,18 +1730,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$J$18,Hoja1!$J$28,Hoja1!$J$38)</c:f>
+              <c:f>(Hoja1!$J$16,Hoja1!$J$26,Hoja1!$J$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1634</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1087</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1950</c:v>
+                  <c:v>1346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,7 +1758,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$13</c:f>
+              <c:f>Hoja1!$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1674,18 +1781,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$K$18,Hoja1!$K$28,Hoja1!$K$38)</c:f>
+              <c:f>(Hoja1!$K$16,Hoja1!$K$26,Hoja1!$K$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2871</c:v>
+                  <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2171</c:v>
+                  <c:v>1620</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2936</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,7 +2216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$12</c:f>
+              <c:f>Hoja1!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2130,7 +2237,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$14:$B$17</c:f>
+              <c:f>Hoja1!$B$12:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2150,21 +2257,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$14:$K$17</c:f>
+              <c:f>Hoja1!$K$12:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>394</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>959</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>379</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1139</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,7 +2287,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$M$12</c:f>
+              <c:f>Hoja1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2201,7 +2308,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$14:$B$17</c:f>
+              <c:f>Hoja1!$B$12:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2221,21 +2328,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$P$14:$P$17</c:f>
+              <c:f>Hoja1!$P$12:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>322</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>287</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>319</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>797</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2251,7 +2358,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$R$12</c:f>
+              <c:f>Hoja1!$R$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2272,7 +2379,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$14:$B$17</c:f>
+              <c:f>Hoja1!$B$12:$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2292,21 +2399,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$U$14:$U$17</c:f>
+              <c:f>Hoja1!$U$12:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>369</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>910</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2827,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$12</c:f>
+              <c:f>Hoja1!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2741,7 +2848,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$24:$B$27</c:f>
+              <c:f>Hoja1!$B$22:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2761,21 +2868,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$24:$K$27</c:f>
+              <c:f>Hoja1!$K$22:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>378</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>349</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1209</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,7 +2898,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$M$12</c:f>
+              <c:f>Hoja1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2812,7 +2919,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$24:$B$27</c:f>
+              <c:f>Hoja1!$B$22:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2832,21 +2939,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$P$24:$P$27</c:f>
+              <c:f>Hoja1!$P$22:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>170</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>492</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,7 +2969,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$R$22</c:f>
+              <c:f>Hoja1!$R$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2883,7 +2990,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$24:$B$27</c:f>
+              <c:f>Hoja1!$B$22:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2903,21 +3010,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$U$24:$U$27</c:f>
+              <c:f>Hoja1!$U$22:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>253</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>499</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>236</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3331,7 +3438,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$12</c:f>
+              <c:f>Hoja1!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3352,7 +3459,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$34:$B$37</c:f>
+              <c:f>Hoja1!$B$32:$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3372,21 +3479,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$K$34:$K$37</c:f>
+              <c:f>Hoja1!$K$32:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>843</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1134</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>543</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>416</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,7 +3509,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$M$12</c:f>
+              <c:f>Hoja1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3423,7 +3530,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$34:$B$37</c:f>
+              <c:f>Hoja1!$B$32:$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3443,21 +3550,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$P$34:$P$37</c:f>
+              <c:f>Hoja1!$P$32:$P$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>766</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>750</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>478</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3473,7 +3580,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$R$22</c:f>
+              <c:f>Hoja1!$R$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3494,7 +3601,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$34:$B$37</c:f>
+              <c:f>Hoja1!$B$32:$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3514,21 +3621,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$U$34:$U$37</c:f>
+              <c:f>Hoja1!$U$32:$U$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>652</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>839</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,7 +4048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$12</c:f>
+              <c:f>Hoja1!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3964,7 +4071,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Hoja1!$B$12,Hoja1!$B$22,Hoja1!$B$32)</c:f>
+              <c:f>(Hoja1!$B$10,Hoja1!$B$20,Hoja1!$B$30)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3981,18 +4088,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$K$18,Hoja1!$K$28,Hoja1!$K$38)</c:f>
+              <c:f>(Hoja1!$K$16,Hoja1!$K$26,Hoja1!$K$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2871</c:v>
+                  <c:v>2936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2171</c:v>
+                  <c:v>1620</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2936</c:v>
+                  <c:v>2091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4009,7 +4116,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$M$12</c:f>
+              <c:f>Hoja1!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4032,7 +4139,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Hoja1!$B$12,Hoja1!$B$22,Hoja1!$B$32)</c:f>
+              <c:f>(Hoja1!$B$10,Hoja1!$B$20,Hoja1!$B$30)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4049,18 +4156,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$P$18,Hoja1!$P$28,Hoja1!$P$38)</c:f>
+              <c:f>(Hoja1!$P$16,Hoja1!$P$26,Hoja1!$P$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1725</c:v>
+                  <c:v>2262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1094</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2262</c:v>
+                  <c:v>1393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4077,7 +4184,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$R$12</c:f>
+              <c:f>Hoja1!$R$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4100,7 +4207,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Hoja1!$B$12,Hoja1!$B$22,Hoja1!$B$32)</c:f>
+              <c:f>(Hoja1!$B$10,Hoja1!$B$20,Hoja1!$B$30)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4117,18 +4224,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hoja1!$U$18,Hoja1!$U$28,Hoja1!$U$38)</c:f>
+              <c:f>(Hoja1!$U$16,Hoja1!$U$26,Hoja1!$U$36)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1797</c:v>
+                  <c:v>1812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1227</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1812</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7811,13 +7918,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>605116</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>5602</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>10086</xdr:rowOff>
@@ -7849,13 +7956,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>39220</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>34737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>375396</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>21289</xdr:rowOff>
@@ -7885,13 +7992,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>585762</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>23531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>501719</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>203640</xdr:rowOff>
@@ -7921,13 +8028,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>588818</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>504775</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -7959,13 +8066,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>51955</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>574048</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>162791</xdr:rowOff>
@@ -7997,13 +8104,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>56539</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>62752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>385584</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>138952</xdr:rowOff>
@@ -8297,1272 +8404,1371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B11:W38"/>
+  <dimension ref="B3:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK34" sqref="AK34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="105" x14ac:dyDescent="0.25">
+      <c r="C4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="30" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="30" t="s">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="23" t="s">
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="19" t="s">
+    <row r="11" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="4" t="s">
+      <c r="L11" s="20"/>
+      <c r="M11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="4" t="s">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="24"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="22"/>
     </row>
-    <row r="14" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+    <row r="12" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="10">
-        <v>23</v>
+      <c r="C12" s="8">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="36">
+        <v>132</v>
+      </c>
+      <c r="I12" s="31">
+        <v>29</v>
+      </c>
+      <c r="J12" s="31">
+        <v>682</v>
+      </c>
+      <c r="K12" s="10">
+        <f>SUM(H12:J12)</f>
+        <v>843</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="31">
+        <v>302</v>
+      </c>
+      <c r="N12" s="33">
+        <v>27</v>
+      </c>
+      <c r="O12" s="31">
+        <v>437</v>
+      </c>
+      <c r="P12" s="10">
+        <f>SUM(M12:O12)</f>
+        <v>766</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="31">
+        <v>144</v>
+      </c>
+      <c r="S12" s="31">
+        <v>11</v>
+      </c>
+      <c r="T12" s="31">
+        <v>497</v>
+      </c>
+      <c r="U12" s="10">
+        <f>SUM(R12:T12)</f>
+        <v>652</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="16">
+        <f>SUM(P12,K12,U12)/3</f>
+        <v>753.66666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="34">
+        <v>327</v>
+      </c>
+      <c r="I13" s="31">
+        <v>78</v>
+      </c>
+      <c r="J13" s="35">
+        <v>729</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" ref="K13:K15" si="0">SUM(H13:J13)</f>
+        <v>1134</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="31">
+        <v>95</v>
+      </c>
+      <c r="N13" s="31">
+        <v>54</v>
+      </c>
+      <c r="O13" s="33">
+        <v>601</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" ref="P13:P15" si="1">SUM(M13:O13)</f>
+        <v>750</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="31">
+        <v>84</v>
+      </c>
+      <c r="S13" s="31">
+        <v>30</v>
+      </c>
+      <c r="T13" s="31">
+        <v>725</v>
+      </c>
+      <c r="U13" s="10">
+        <f t="shared" ref="U13:U15" si="2">SUM(R13:T13)</f>
+        <v>839</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" ref="W13:W15" si="3">SUM(P13,K13,U13)/3</f>
+        <v>907.66666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="10">
-        <v>8</v>
-      </c>
-      <c r="H14" s="11">
-        <v>53</v>
-      </c>
-      <c r="I14" s="12">
-        <v>17</v>
-      </c>
-      <c r="J14" s="12">
-        <v>324</v>
-      </c>
-      <c r="K14" s="13">
-        <f>SUM(H14:J14)</f>
-        <v>394</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="E14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="34">
+        <v>328</v>
+      </c>
+      <c r="I14" s="31">
+        <v>28</v>
+      </c>
+      <c r="J14" s="33">
+        <v>187</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
+        <v>543</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="12">
-        <v>32</v>
-      </c>
-      <c r="N14" s="12">
-        <v>15</v>
-      </c>
-      <c r="O14" s="12">
-        <v>275</v>
-      </c>
-      <c r="P14" s="13">
-        <f>SUM(M14:O14)</f>
-        <v>322</v>
-      </c>
-      <c r="Q14" s="14" t="s">
+      <c r="M14" s="33">
+        <v>87</v>
+      </c>
+      <c r="N14" s="31">
+        <v>29</v>
+      </c>
+      <c r="O14" s="33">
+        <v>152</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="Q14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="12">
-        <v>63</v>
-      </c>
-      <c r="S14" s="12">
-        <v>22</v>
-      </c>
-      <c r="T14" s="12">
-        <v>284</v>
-      </c>
-      <c r="U14" s="13">
-        <f>SUM(R14:T14)</f>
-        <v>369</v>
+      <c r="R14" s="31">
+        <v>47</v>
+      </c>
+      <c r="S14" s="31">
+        <v>19</v>
+      </c>
+      <c r="T14" s="33">
+        <v>125</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="2"/>
+        <v>191</v>
       </c>
       <c r="V14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="25">
-        <f>SUM(P14,K14,U14)/3</f>
-        <v>361.66666666666669</v>
+      <c r="W14" s="16">
+        <f t="shared" si="3"/>
+        <v>334</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="10">
-        <v>6</v>
-      </c>
-      <c r="H15" s="11">
-        <v>723</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="E15" s="8">
+        <v>8</v>
+      </c>
+      <c r="H15" s="30">
+        <v>36</v>
+      </c>
+      <c r="I15" s="32">
+        <v>28</v>
+      </c>
+      <c r="J15" s="32">
+        <v>352</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="32">
+        <v>254</v>
+      </c>
+      <c r="N15" s="32">
+        <v>11</v>
+      </c>
+      <c r="O15" s="32">
+        <v>213</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="1"/>
+        <v>478</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="32">
         <v>12</v>
       </c>
-      <c r="J15" s="12">
-        <v>224</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" ref="K15:K17" si="0">SUM(H15:J15)</f>
-        <v>959</v>
-      </c>
-      <c r="L15" s="14" t="s">
+      <c r="S15" s="32">
+        <v>7</v>
+      </c>
+      <c r="T15" s="32">
+        <v>111</v>
+      </c>
+      <c r="U15" s="12">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="V15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="12">
-        <v>29</v>
-      </c>
-      <c r="N15" s="12">
-        <v>23</v>
-      </c>
-      <c r="O15" s="12">
-        <v>235</v>
-      </c>
-      <c r="P15" s="13">
-        <f t="shared" ref="P15:P17" si="1">SUM(M15:O15)</f>
-        <v>287</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="12">
-        <v>32</v>
-      </c>
-      <c r="S15" s="12">
-        <v>16</v>
-      </c>
-      <c r="T15" s="12">
-        <v>202</v>
-      </c>
-      <c r="U15" s="13">
-        <f t="shared" ref="U15:U17" si="2">SUM(R15:T15)</f>
-        <v>250</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W15" s="25">
-        <f t="shared" ref="W15:W17" si="3">SUM(P15,K15,U15)/3</f>
-        <v>498.66666666666669</v>
+      <c r="W15" s="17">
+        <f t="shared" si="3"/>
+        <v>341.33333333333331</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H12:H15)</f>
+        <v>823</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" ref="I16:W16" si="4">SUM(I12:I15)</f>
+        <v>163</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="4"/>
+        <v>1950</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="4"/>
+        <v>2936</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9">
+        <f t="shared" si="4"/>
+        <v>738</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="4"/>
+        <v>1403</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="4"/>
+        <v>2262</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="4"/>
+        <v>1458</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="4"/>
+        <v>1812</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="18">
+        <f t="shared" si="4"/>
+        <v>2336.6666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="10">
-        <v>4</v>
-      </c>
-      <c r="H16" s="11">
-        <v>82</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8">
+        <v>9</v>
+      </c>
+      <c r="H22" s="34">
+        <v>120</v>
+      </c>
+      <c r="I22" s="31">
+        <v>52</v>
+      </c>
+      <c r="J22" s="31">
+        <v>172</v>
+      </c>
+      <c r="K22" s="10">
+        <f>SUM(H22:J22)</f>
+        <v>344</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="31">
+        <v>29</v>
+      </c>
+      <c r="N22" s="31">
+        <v>42</v>
+      </c>
+      <c r="O22" s="31">
+        <v>100</v>
+      </c>
+      <c r="P22" s="10">
+        <f>SUM(M22:O22)</f>
+        <v>171</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="31">
+        <v>24</v>
+      </c>
+      <c r="S22" s="31">
+        <v>50</v>
+      </c>
+      <c r="T22" s="31">
+        <v>92</v>
+      </c>
+      <c r="U22" s="10">
+        <f>SUM(R22:T22)</f>
+        <v>166</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="16">
+        <f>SUM(P22,K22,U22)/3</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9</v>
+      </c>
+      <c r="H23" s="34">
+        <v>111</v>
+      </c>
+      <c r="I23" s="31">
+        <v>182</v>
+      </c>
+      <c r="J23" s="31">
+        <v>116</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" ref="K23:K25" si="5">SUM(H23:J23)</f>
+        <v>409</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="31">
         <v>32</v>
       </c>
-      <c r="J16" s="12">
-        <v>265</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="shared" si="0"/>
-        <v>379</v>
-      </c>
-      <c r="L16" s="14" t="s">
+      <c r="N23" s="31">
+        <v>26</v>
+      </c>
+      <c r="O23" s="31">
+        <v>176</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" ref="P23:P25" si="6">SUM(M23:O23)</f>
+        <v>234</v>
+      </c>
+      <c r="Q23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="12">
-        <v>64</v>
-      </c>
-      <c r="N16" s="12">
-        <v>25</v>
-      </c>
-      <c r="O16" s="12">
-        <v>230</v>
-      </c>
-      <c r="P16" s="13">
-        <f t="shared" si="1"/>
-        <v>319</v>
-      </c>
-      <c r="Q16" s="14" t="s">
+      <c r="R23" s="31">
+        <v>36</v>
+      </c>
+      <c r="S23" s="31">
+        <v>39</v>
+      </c>
+      <c r="T23" s="31">
+        <v>74</v>
+      </c>
+      <c r="U23" s="10">
+        <f t="shared" ref="U23:U25" si="7">SUM(R23:T23)</f>
+        <v>149</v>
+      </c>
+      <c r="V23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="12">
-        <v>51</v>
-      </c>
-      <c r="S16" s="12">
-        <v>24</v>
-      </c>
-      <c r="T16" s="12">
-        <v>193</v>
-      </c>
-      <c r="U16" s="13">
-        <f t="shared" si="2"/>
-        <v>268</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W16" s="25">
-        <f t="shared" si="3"/>
-        <v>322</v>
+      <c r="W23" s="16">
+        <f t="shared" ref="W23:W25" si="8">SUM(P23,K23,U23)/3</f>
+        <v>264</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="10">
-        <v>63</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
-      <c r="H17" s="15">
-        <v>254</v>
-      </c>
-      <c r="I17" s="16">
-        <v>64</v>
-      </c>
-      <c r="J17" s="16">
-        <v>821</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="0"/>
-        <v>1139</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="16">
-        <v>231</v>
-      </c>
-      <c r="N17" s="16">
-        <v>43</v>
-      </c>
-      <c r="O17" s="16">
-        <v>523</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="1"/>
-        <v>797</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="16">
-        <v>215</v>
-      </c>
-      <c r="S17" s="16">
-        <v>72</v>
-      </c>
-      <c r="T17" s="16">
-        <v>623</v>
-      </c>
-      <c r="U17" s="17">
-        <f t="shared" si="2"/>
-        <v>910</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W17" s="26">
-        <f t="shared" si="3"/>
-        <v>948.66666666666663</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H14:H17)</f>
-        <v>1112</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" ref="I18:W18" si="4">SUM(I14:I17)</f>
-        <v>125</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="4"/>
-        <v>1634</v>
-      </c>
-      <c r="K18" s="12">
-        <f t="shared" si="4"/>
-        <v>2871</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12">
-        <f t="shared" si="4"/>
-        <v>356</v>
-      </c>
-      <c r="N18" s="12">
-        <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="O18" s="12">
-        <f t="shared" si="4"/>
-        <v>1263</v>
-      </c>
-      <c r="P18" s="12">
-        <f t="shared" si="4"/>
-        <v>1725</v>
-      </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12">
-        <f t="shared" si="4"/>
-        <v>361</v>
-      </c>
-      <c r="S18" s="12">
-        <f t="shared" si="4"/>
-        <v>134</v>
-      </c>
-      <c r="T18" s="12">
-        <f t="shared" si="4"/>
-        <v>1302</v>
-      </c>
-      <c r="U18" s="12">
-        <f t="shared" si="4"/>
-        <v>1797</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12">
-        <f t="shared" si="4"/>
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="30" t="s">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
         <v>15</v>
-      </c>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="10">
-        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="10">
-        <v>9</v>
-      </c>
-      <c r="H24" s="11">
-        <v>231</v>
-      </c>
-      <c r="I24" s="12">
-        <v>8</v>
-      </c>
-      <c r="J24" s="12">
-        <v>139</v>
-      </c>
-      <c r="K24" s="13">
-        <f>SUM(H24:J24)</f>
-        <v>378</v>
-      </c>
-      <c r="L24" s="14" t="s">
+      <c r="E24" s="8">
+        <v>5</v>
+      </c>
+      <c r="H24" s="34">
+        <v>241</v>
+      </c>
+      <c r="I24" s="31">
+        <v>42</v>
+      </c>
+      <c r="J24" s="31">
+        <v>344</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="5"/>
+        <v>627</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="12">
-        <v>26</v>
-      </c>
-      <c r="N24" s="12">
-        <v>9</v>
-      </c>
-      <c r="O24" s="12">
-        <v>135</v>
-      </c>
-      <c r="P24" s="13">
-        <f>SUM(M24:O24)</f>
-        <v>170</v>
-      </c>
-      <c r="Q24" s="14" t="s">
+      <c r="M24" s="31">
+        <v>14</v>
+      </c>
+      <c r="N24" s="31">
+        <v>14</v>
+      </c>
+      <c r="O24" s="31">
+        <v>276</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="6"/>
+        <v>304</v>
+      </c>
+      <c r="Q24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R24" s="12">
-        <v>43</v>
-      </c>
-      <c r="S24" s="12">
-        <v>13</v>
-      </c>
-      <c r="T24" s="12">
-        <v>197</v>
-      </c>
-      <c r="U24" s="13">
-        <f>SUM(R24:T24)</f>
-        <v>253</v>
+      <c r="R24" s="31">
+        <v>19</v>
+      </c>
+      <c r="S24" s="31">
+        <v>46</v>
+      </c>
+      <c r="T24" s="31">
+        <v>187</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="7"/>
+        <v>252</v>
       </c>
       <c r="V24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W24" s="25">
-        <f>SUM(P24,K24,U24)/3</f>
-        <v>267</v>
+      <c r="W24" s="16">
+        <f t="shared" si="8"/>
+        <v>394.33333333333331</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
         <v>22</v>
       </c>
-      <c r="C25" s="10">
-        <v>24</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="10">
-        <v>9</v>
-      </c>
-      <c r="H25" s="11">
-        <v>43</v>
-      </c>
-      <c r="I25" s="12">
+        <v>17</v>
+      </c>
+      <c r="E25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25" s="30">
+        <v>64</v>
+      </c>
+      <c r="I25" s="32">
+        <v>52</v>
+      </c>
+      <c r="J25" s="37">
+        <v>124</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="32">
+        <v>72</v>
+      </c>
+      <c r="N25" s="32">
         <v>28</v>
       </c>
-      <c r="J25" s="12">
-        <v>278</v>
-      </c>
-      <c r="K25" s="13">
-        <f t="shared" ref="K25:K27" si="5">SUM(H25:J25)</f>
-        <v>349</v>
-      </c>
-      <c r="L25" s="14" t="s">
+      <c r="O25" s="32">
+        <v>94</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="6"/>
+        <v>194</v>
+      </c>
+      <c r="Q25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="12">
-        <v>16</v>
-      </c>
-      <c r="N25" s="12">
-        <v>38</v>
-      </c>
-      <c r="O25" s="12">
-        <v>183</v>
-      </c>
-      <c r="P25" s="13">
-        <f t="shared" ref="P25:P27" si="6">SUM(M25:O25)</f>
-        <v>237</v>
-      </c>
-      <c r="Q25" s="14" t="s">
+      <c r="R25" s="32">
+        <v>67</v>
+      </c>
+      <c r="S25" s="37">
+        <v>22</v>
+      </c>
+      <c r="T25" s="32">
+        <v>82</v>
+      </c>
+      <c r="U25" s="12">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="V25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R25" s="12">
-        <v>17</v>
-      </c>
-      <c r="S25" s="12">
-        <v>21</v>
-      </c>
-      <c r="T25" s="12">
-        <v>201</v>
-      </c>
-      <c r="U25" s="13">
-        <f t="shared" ref="U25:U27" si="7">SUM(R25:T25)</f>
-        <v>239</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W25" s="25">
-        <f t="shared" ref="W25:W27" si="8">SUM(P25,K25,U25)/3</f>
-        <v>275</v>
+      <c r="W25" s="17">
+        <f t="shared" si="8"/>
+        <v>201.66666666666666</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="9">
+        <f>SUM(H22:H25)</f>
+        <v>536</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" ref="I26" si="9">SUM(I22:I25)</f>
+        <v>328</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26" si="10">SUM(J22:J25)</f>
+        <v>756</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" ref="K26" si="11">SUM(K22:K25)</f>
+        <v>1620</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9">
+        <f t="shared" ref="M26" si="12">SUM(M22:M25)</f>
+        <v>147</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" ref="N26" si="13">SUM(N22:N25)</f>
+        <v>110</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" ref="O26" si="14">SUM(O22:O25)</f>
+        <v>646</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" ref="P26" si="15">SUM(P22:P25)</f>
+        <v>903</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9">
+        <f t="shared" ref="R26" si="16">SUM(R22:R25)</f>
+        <v>146</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" ref="S26" si="17">SUM(S22:S25)</f>
+        <v>157</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" ref="T26" si="18">SUM(T22:T25)</f>
+        <v>435</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" ref="U26" si="19">SUM(U22:U25)</f>
+        <v>738</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="18">
+        <f t="shared" ref="W26" si="20">SUM(W22:W25)</f>
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="24"/>
+      <c r="C31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V31" s="20"/>
+      <c r="W31" s="22"/>
+    </row>
+    <row r="32" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8">
         <v>23</v>
       </c>
-      <c r="C26" s="10">
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="8">
+        <v>8</v>
+      </c>
+      <c r="H32" s="34">
+        <v>48</v>
+      </c>
+      <c r="I32" s="31">
+        <v>23</v>
+      </c>
+      <c r="J32" s="31">
+        <v>272</v>
+      </c>
+      <c r="K32" s="10">
+        <f>SUM(H32:J32)</f>
+        <v>343</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="31">
+        <v>32</v>
+      </c>
+      <c r="N32" s="31">
+        <v>21</v>
+      </c>
+      <c r="O32" s="31">
+        <v>198</v>
+      </c>
+      <c r="P32" s="10">
+        <f>SUM(M32:O32)</f>
+        <v>251</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" s="31">
+        <v>17</v>
+      </c>
+      <c r="S32" s="31">
+        <v>22</v>
+      </c>
+      <c r="T32" s="31">
+        <v>145</v>
+      </c>
+      <c r="U32" s="10">
+        <f>SUM(R32:T32)</f>
+        <v>184</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" s="16">
+        <f>SUM(P32,K32,U32)/3</f>
+        <v>259.33333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="8">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="8">
+        <v>6</v>
+      </c>
+      <c r="H33" s="34">
+        <v>202</v>
+      </c>
+      <c r="I33" s="31">
+        <v>40</v>
+      </c>
+      <c r="J33" s="31">
+        <v>251</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" ref="K33:K35" si="21">SUM(H33:J33)</f>
+        <v>493</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="31">
+        <v>29</v>
+      </c>
+      <c r="N33" s="31">
+        <v>36</v>
+      </c>
+      <c r="O33" s="31">
+        <v>251</v>
+      </c>
+      <c r="P33" s="10">
+        <f t="shared" ref="P33:P35" si="22">SUM(M33:O33)</f>
+        <v>316</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" s="31">
+        <v>32</v>
+      </c>
+      <c r="S33" s="31">
+        <v>16</v>
+      </c>
+      <c r="T33" s="31">
+        <v>250</v>
+      </c>
+      <c r="U33" s="10">
+        <f t="shared" ref="U33:U35" si="23">SUM(R33:T33)</f>
+        <v>298</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W33" s="16">
+        <f t="shared" ref="W33:W35" si="24">SUM(P33,K33,U33)/3</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="8">
         <v>15</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="10">
-        <v>5</v>
-      </c>
-      <c r="H26" s="11">
-        <v>584</v>
-      </c>
-      <c r="I26" s="12">
-        <v>71</v>
-      </c>
-      <c r="J26" s="12">
-        <v>554</v>
-      </c>
-      <c r="K26" s="13">
-        <f t="shared" si="5"/>
-        <v>1209</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="12">
-        <v>103</v>
-      </c>
-      <c r="N26" s="12">
-        <v>37</v>
-      </c>
-      <c r="O26" s="12">
-        <v>352</v>
-      </c>
-      <c r="P26" s="13">
-        <f t="shared" si="6"/>
-        <v>492</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R26" s="12">
-        <v>80</v>
-      </c>
-      <c r="S26" s="12">
-        <v>94</v>
-      </c>
-      <c r="T26" s="12">
-        <v>325</v>
-      </c>
-      <c r="U26" s="13">
-        <f t="shared" si="7"/>
-        <v>499</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W26" s="25">
-        <f t="shared" si="8"/>
-        <v>733.33333333333337</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="10">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="10">
-        <v>8</v>
-      </c>
-      <c r="H27" s="15">
-        <v>64</v>
-      </c>
-      <c r="I27" s="16">
-        <v>55</v>
-      </c>
-      <c r="J27" s="16">
-        <v>116</v>
-      </c>
-      <c r="K27" s="17">
-        <f t="shared" si="5"/>
-        <v>235</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="16">
-        <v>35</v>
-      </c>
-      <c r="N27" s="16">
-        <v>50</v>
-      </c>
-      <c r="O27" s="16">
-        <v>110</v>
-      </c>
-      <c r="P27" s="17">
-        <f t="shared" si="6"/>
-        <v>195</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R27" s="16">
-        <v>42</v>
-      </c>
-      <c r="S27" s="16">
-        <v>10</v>
-      </c>
-      <c r="T27" s="16">
-        <v>184</v>
-      </c>
-      <c r="U27" s="17">
-        <f t="shared" si="7"/>
-        <v>236</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W27" s="26">
-        <f t="shared" si="8"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="12">
-        <f>SUM(H24:H27)</f>
-        <v>922</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" ref="I28" si="9">SUM(I24:I27)</f>
-        <v>162</v>
-      </c>
-      <c r="J28" s="12">
-        <f t="shared" ref="J28" si="10">SUM(J24:J27)</f>
-        <v>1087</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" ref="K28" si="11">SUM(K24:K27)</f>
-        <v>2171</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12">
-        <f t="shared" ref="M28" si="12">SUM(M24:M27)</f>
-        <v>180</v>
-      </c>
-      <c r="N28" s="12">
-        <f t="shared" ref="N28" si="13">SUM(N24:N27)</f>
-        <v>134</v>
-      </c>
-      <c r="O28" s="12">
-        <f t="shared" ref="O28" si="14">SUM(O24:O27)</f>
-        <v>780</v>
-      </c>
-      <c r="P28" s="12">
-        <f t="shared" ref="P28" si="15">SUM(P24:P27)</f>
-        <v>1094</v>
-      </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12">
-        <f t="shared" ref="R28" si="16">SUM(R24:R27)</f>
-        <v>182</v>
-      </c>
-      <c r="S28" s="12">
-        <f t="shared" ref="S28" si="17">SUM(S24:S27)</f>
-        <v>138</v>
-      </c>
-      <c r="T28" s="12">
-        <f t="shared" ref="T28" si="18">SUM(T24:T27)</f>
-        <v>907</v>
-      </c>
-      <c r="U28" s="12">
-        <f t="shared" ref="U28" si="19">SUM(U24:U27)</f>
-        <v>1227</v>
-      </c>
-      <c r="V28" s="12"/>
-      <c r="W28" s="31">
-        <f t="shared" ref="W28" si="20">SUM(W24:W27)</f>
-        <v>1497.3333333333335</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22"/>
-      <c r="C33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V33" s="9"/>
-      <c r="W33" s="24"/>
-    </row>
-    <row r="34" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="10">
-        <v>37</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>4</v>
       </c>
-      <c r="H34" s="11">
-        <v>132</v>
-      </c>
-      <c r="I34" s="12">
-        <v>29</v>
-      </c>
-      <c r="J34" s="12">
-        <v>682</v>
-      </c>
-      <c r="K34" s="13">
-        <f>SUM(H34:J34)</f>
-        <v>843</v>
-      </c>
-      <c r="L34" s="14" t="s">
+      <c r="H34" s="34">
+        <v>82</v>
+      </c>
+      <c r="I34" s="31">
+        <v>32</v>
+      </c>
+      <c r="J34" s="31">
+        <v>343</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="21"/>
+        <v>457</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="12">
-        <v>302</v>
-      </c>
-      <c r="N34" s="12">
-        <v>27</v>
-      </c>
-      <c r="O34" s="12">
-        <v>437</v>
-      </c>
-      <c r="P34" s="13">
-        <f>SUM(M34:O34)</f>
-        <v>766</v>
-      </c>
-      <c r="Q34" s="14" t="s">
+      <c r="M34" s="31">
+        <v>64</v>
+      </c>
+      <c r="N34" s="31">
+        <v>25</v>
+      </c>
+      <c r="O34" s="31">
+        <v>230</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" si="22"/>
+        <v>319</v>
+      </c>
+      <c r="Q34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R34" s="12">
-        <v>144</v>
-      </c>
-      <c r="S34" s="12">
-        <v>11</v>
-      </c>
-      <c r="T34" s="12">
-        <v>497</v>
-      </c>
-      <c r="U34" s="13">
-        <f>SUM(R34:T34)</f>
-        <v>652</v>
+      <c r="R34" s="31">
+        <v>51</v>
+      </c>
+      <c r="S34" s="31">
+        <v>24</v>
+      </c>
+      <c r="T34" s="31">
+        <v>193</v>
+      </c>
+      <c r="U34" s="10">
+        <f t="shared" si="23"/>
+        <v>268</v>
       </c>
       <c r="V34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W34" s="25">
-        <f>SUM(P34,K34,U34)/3</f>
-        <v>753.66666666666663</v>
+      <c r="W34" s="16">
+        <f t="shared" si="24"/>
+        <v>348</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="10">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="C35" s="8">
+        <v>63</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11">
-        <v>327</v>
-      </c>
-      <c r="I35" s="12">
-        <v>78</v>
-      </c>
-      <c r="J35" s="12">
-        <v>729</v>
-      </c>
-      <c r="K35" s="13">
-        <f t="shared" ref="K35:K37" si="21">SUM(H35:J35)</f>
-        <v>1134</v>
-      </c>
-      <c r="L35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2</v>
+      </c>
+      <c r="H35" s="30">
+        <v>254</v>
+      </c>
+      <c r="I35" s="32">
+        <v>64</v>
+      </c>
+      <c r="J35" s="37">
+        <v>480</v>
+      </c>
+      <c r="K35" s="12">
+        <f t="shared" si="21"/>
+        <v>798</v>
+      </c>
+      <c r="L35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M35" s="12">
-        <v>95</v>
-      </c>
-      <c r="N35" s="12">
-        <v>54</v>
-      </c>
-      <c r="O35" s="12">
-        <v>601</v>
-      </c>
-      <c r="P35" s="13">
-        <f t="shared" ref="P35:P37" si="22">SUM(M35:O35)</f>
-        <v>750</v>
-      </c>
-      <c r="Q35" s="14" t="s">
+      <c r="M35" s="32">
+        <v>145</v>
+      </c>
+      <c r="N35" s="32">
+        <v>43</v>
+      </c>
+      <c r="O35" s="32">
+        <v>319</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" si="22"/>
+        <v>507</v>
+      </c>
+      <c r="Q35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R35" s="12">
-        <v>84</v>
-      </c>
-      <c r="S35" s="12">
-        <v>30</v>
-      </c>
-      <c r="T35" s="12">
-        <v>725</v>
-      </c>
-      <c r="U35" s="13">
-        <f t="shared" ref="U35:U37" si="23">SUM(R35:T35)</f>
-        <v>839</v>
-      </c>
-      <c r="V35" s="6" t="s">
+      <c r="R35" s="32">
+        <v>90</v>
+      </c>
+      <c r="S35" s="32">
+        <v>76</v>
+      </c>
+      <c r="T35" s="32">
+        <v>294</v>
+      </c>
+      <c r="U35" s="12">
+        <f t="shared" si="23"/>
+        <v>460</v>
+      </c>
+      <c r="V35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W35" s="25">
-        <f t="shared" ref="W35:W37" si="24">SUM(P35,K35,U35)/3</f>
-        <v>907.66666666666663</v>
+      <c r="W35" s="17">
+        <f t="shared" si="24"/>
+        <v>588.33333333333337</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="10">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="10">
-        <v>10</v>
-      </c>
-      <c r="H36" s="11">
-        <v>328</v>
-      </c>
-      <c r="I36" s="12">
-        <v>28</v>
-      </c>
-      <c r="J36" s="12">
-        <v>187</v>
-      </c>
-      <c r="K36" s="13">
-        <f t="shared" si="21"/>
-        <v>543</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="12">
-        <v>87</v>
-      </c>
-      <c r="N36" s="12">
+      <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="O36" s="12">
-        <v>152</v>
-      </c>
-      <c r="P36" s="13">
-        <f t="shared" si="22"/>
-        <v>268</v>
-      </c>
-      <c r="Q36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R36" s="12">
-        <v>47</v>
-      </c>
-      <c r="S36" s="12">
-        <v>19</v>
-      </c>
-      <c r="T36" s="12">
+      <c r="H36" s="9">
+        <f>SUM(H32:H35)</f>
+        <v>586</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" ref="I36" si="25">SUM(I32:I35)</f>
+        <v>159</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" ref="J36" si="26">SUM(J32:J35)</f>
+        <v>1346</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" ref="K36" si="27">SUM(K32:K35)</f>
+        <v>2091</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9">
+        <f t="shared" ref="M36" si="28">SUM(M32:M35)</f>
+        <v>270</v>
+      </c>
+      <c r="N36" s="9">
+        <f t="shared" ref="N36" si="29">SUM(N32:N35)</f>
         <v>125</v>
       </c>
-      <c r="U36" s="13">
-        <f t="shared" si="23"/>
-        <v>191</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="W36" s="25">
-        <f t="shared" si="24"/>
-        <v>334</v>
+      <c r="O36" s="9">
+        <f t="shared" ref="O36" si="30">SUM(O32:O35)</f>
+        <v>998</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" ref="P36" si="31">SUM(P32:P35)</f>
+        <v>1393</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9">
+        <f t="shared" ref="R36" si="32">SUM(R32:R35)</f>
+        <v>190</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" ref="S36" si="33">SUM(S32:S35)</f>
+        <v>138</v>
+      </c>
+      <c r="T36" s="9">
+        <f t="shared" ref="T36" si="34">SUM(T32:T35)</f>
+        <v>882</v>
+      </c>
+      <c r="U36" s="9">
+        <f t="shared" ref="U36" si="35">SUM(U32:U35)</f>
+        <v>1210</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="18">
+        <f t="shared" ref="W36" si="36">SUM(W32:W35)</f>
+        <v>1564.6666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="10">
-        <v>26</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="10">
-        <v>8</v>
-      </c>
-      <c r="H37" s="15">
-        <v>36</v>
-      </c>
-      <c r="I37" s="16">
-        <v>28</v>
-      </c>
-      <c r="J37" s="16">
-        <v>352</v>
-      </c>
-      <c r="K37" s="17">
-        <f t="shared" si="21"/>
-        <v>416</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" s="16">
-        <v>254</v>
-      </c>
-      <c r="N37" s="16">
-        <v>11</v>
-      </c>
-      <c r="O37" s="16">
-        <v>213</v>
-      </c>
-      <c r="P37" s="17">
-        <f t="shared" si="22"/>
-        <v>478</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R37" s="16">
-        <v>12</v>
-      </c>
-      <c r="S37" s="16">
-        <v>7</v>
-      </c>
-      <c r="T37" s="16">
-        <v>111</v>
-      </c>
-      <c r="U37" s="17">
-        <f t="shared" si="23"/>
-        <v>130</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="W37" s="26">
-        <f t="shared" si="24"/>
-        <v>341.33333333333331</v>
-      </c>
+    <row r="50" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="12">
-        <f>SUM(H34:H37)</f>
-        <v>823</v>
-      </c>
-      <c r="I38" s="12">
-        <f t="shared" ref="I38" si="25">SUM(I34:I37)</f>
-        <v>163</v>
-      </c>
-      <c r="J38" s="12">
-        <f t="shared" ref="J38" si="26">SUM(J34:J37)</f>
-        <v>1950</v>
-      </c>
-      <c r="K38" s="12">
-        <f t="shared" ref="K38" si="27">SUM(K34:K37)</f>
-        <v>2936</v>
-      </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12">
-        <f t="shared" ref="M38" si="28">SUM(M34:M37)</f>
-        <v>738</v>
-      </c>
-      <c r="N38" s="12">
-        <f t="shared" ref="N38" si="29">SUM(N34:N37)</f>
-        <v>121</v>
-      </c>
-      <c r="O38" s="12">
-        <f t="shared" ref="O38" si="30">SUM(O34:O37)</f>
-        <v>1403</v>
-      </c>
-      <c r="P38" s="12">
-        <f t="shared" ref="P38" si="31">SUM(P34:P37)</f>
-        <v>2262</v>
-      </c>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12">
-        <f t="shared" ref="R38" si="32">SUM(R34:R37)</f>
-        <v>287</v>
-      </c>
-      <c r="S38" s="12">
-        <f t="shared" ref="S38" si="33">SUM(S34:S37)</f>
-        <v>67</v>
-      </c>
-      <c r="T38" s="12">
-        <f t="shared" ref="T38" si="34">SUM(T34:T37)</f>
-        <v>1458</v>
-      </c>
-      <c r="U38" s="12">
-        <f t="shared" ref="U38" si="35">SUM(U34:U37)</f>
-        <v>1812</v>
-      </c>
-      <c r="V38" s="12"/>
-      <c r="W38" s="31">
-        <f t="shared" ref="W38" si="36">SUM(W34:W37)</f>
-        <v>2336.6666666666665</v>
-      </c>
+    <row r="51" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+    </row>
+    <row r="60" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+    </row>
+    <row r="61" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+    </row>
+    <row r="70" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+    </row>
+    <row r="71" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:U20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
